--- a/tables/books_eng.xlsx
+++ b/tables/books_eng.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/materov/ALL/@Quarto projects/Rsources_book/Resources/tables/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/materov/ALL/@GitProjects/@2024/rsources-book/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB026E90-CD9C-AB40-AEEC-A1F26D3A07DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{099F28C2-01A3-AF4C-8D69-3153D7BB22E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="60" yWindow="500" windowWidth="25540" windowHeight="14160" xr2:uid="{D3150169-A0ED-F142-9C13-F6AF1A7F6BF6}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="179">
   <si>
     <t>link</t>
   </si>
@@ -554,6 +554,24 @@
   </si>
   <si>
     <t>R for Social Network Analysis (in progress)</t>
+  </si>
+  <si>
+    <t>Cooking With DuckDB</t>
+  </si>
+  <si>
+    <t>https://duckdb.hrbrmstr.app/</t>
+  </si>
+  <si>
+    <t>boB Rudis</t>
+  </si>
+  <si>
+    <t>Hydroinformatics</t>
+  </si>
+  <si>
+    <t>https://vt-hydroinformatics.github.io/Quarto_Book/</t>
+  </si>
+  <si>
+    <t>JP Gannon</t>
   </si>
 </sst>
 </file>
@@ -909,10 +927,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{030A72B4-BCD4-C841-B970-1A2BD7901864}">
-  <dimension ref="A1:C59"/>
+  <dimension ref="A1:C61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1163,7 +1181,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>46</v>
       </c>
@@ -1451,123 +1469,145 @@
     </row>
     <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>5</v>
+        <v>162</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>3</v>
+        <v>160</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>4</v>
+        <v>161</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B52" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C52" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
+    <row r="53" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B53" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C53" s="1" t="s">
         <v>169</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B55" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C55" s="1" t="s">
         <v>165</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="51" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="51" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B57" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C57" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
+    <row r="58" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B58" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C58" s="1" t="s">
         <v>150</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A58" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B60" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C60" s="1" t="s">
         <v>132</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>

--- a/tables/books_eng.xlsx
+++ b/tables/books_eng.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/materov/ALL/@GitProjects/@2024/rsources-book/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{099F28C2-01A3-AF4C-8D69-3153D7BB22E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E72E7A3-FE53-D142-AAEA-97184CAC698D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="60" yWindow="500" windowWidth="25540" windowHeight="14160" xr2:uid="{D3150169-A0ED-F142-9C13-F6AF1A7F6BF6}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="181">
   <si>
     <t>link</t>
   </si>
@@ -572,6 +572,12 @@
   </si>
   <si>
     <t>JP Gannon</t>
+  </si>
+  <si>
+    <t>коллектив авторов</t>
+  </si>
+  <si>
+    <t>https://algorithmsbook.com/</t>
   </si>
 </sst>
 </file>
@@ -927,10 +933,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{030A72B4-BCD4-C841-B970-1A2BD7901864}">
-  <dimension ref="A1:C61"/>
+  <dimension ref="A1:C62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1601,12 +1607,23 @@
     </row>
     <row r="61" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B62" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C62" s="1" t="s">
         <v>174</v>
       </c>
     </row>

--- a/tables/books_eng.xlsx
+++ b/tables/books_eng.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/materov/ALL/@GitProjects/@2024/rsources-book/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E72E7A3-FE53-D142-AAEA-97184CAC698D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54FA794A-C9C9-0A40-9013-7046BFCAF856}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="60" yWindow="500" windowWidth="25540" windowHeight="14160" xr2:uid="{D3150169-A0ED-F142-9C13-F6AF1A7F6BF6}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="184">
   <si>
     <t>link</t>
   </si>
@@ -578,6 +578,15 @@
   </si>
   <si>
     <t>https://algorithmsbook.com/</t>
+  </si>
+  <si>
+    <t>Think Python</t>
+  </si>
+  <si>
+    <t>https://allendowney.github.io/ThinkPython/index.html</t>
+  </si>
+  <si>
+    <t>Allen B. Downey</t>
   </si>
 </sst>
 </file>
@@ -933,10 +942,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{030A72B4-BCD4-C841-B970-1A2BD7901864}">
-  <dimension ref="A1:C62"/>
+  <dimension ref="A1:C63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C62" sqref="C62"/>
+    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C58" sqref="A58:C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1572,58 +1581,69 @@
         <v>36</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B59" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C59" s="1" t="s">
         <v>150</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>179</v>
+        <v>133</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>131</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>180</v>
+        <v>132</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B63" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C63" s="1" t="s">
         <v>174</v>
       </c>
     </row>

--- a/tables/books_eng.xlsx
+++ b/tables/books_eng.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/materov/ALL/@GitProjects/@2024/rsources-book/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54FA794A-C9C9-0A40-9013-7046BFCAF856}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{705F274D-1F74-F34A-9D44-B46C265D7F21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="60" yWindow="500" windowWidth="25540" windowHeight="14160" xr2:uid="{D3150169-A0ED-F142-9C13-F6AF1A7F6BF6}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="187">
   <si>
     <t>link</t>
   </si>
@@ -587,6 +587,15 @@
   </si>
   <si>
     <t>Allen B. Downey</t>
+  </si>
+  <si>
+    <t>Creating beautiful tables in R with {gt}</t>
+  </si>
+  <si>
+    <t>https://gt.albert-rapp.de/</t>
+  </si>
+  <si>
+    <t>Albert Rapp</t>
   </si>
 </sst>
 </file>
@@ -942,10 +951,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{030A72B4-BCD4-C841-B970-1A2BD7901864}">
-  <dimension ref="A1:C63"/>
+  <dimension ref="A1:C64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C58" sqref="A58:C58"/>
+    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1647,6 +1656,17 @@
         <v>174</v>
       </c>
     </row>
+    <row r="64" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tables/books_eng.xlsx
+++ b/tables/books_eng.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/materov/ALL/@GitProjects/@2024/rsources-book/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{705F274D-1F74-F34A-9D44-B46C265D7F21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF1B5D4C-531A-9941-91DA-28EBC0711E48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="60" yWindow="500" windowWidth="25540" windowHeight="14160" xr2:uid="{D3150169-A0ED-F142-9C13-F6AF1A7F6BF6}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="190">
   <si>
     <t>link</t>
   </si>
@@ -596,6 +596,15 @@
   </si>
   <si>
     <t>Albert Rapp</t>
+  </si>
+  <si>
+    <t>Biological Data Science with R</t>
+  </si>
+  <si>
+    <t>https://bdsr.stephenturner.us/</t>
+  </si>
+  <si>
+    <t>Stephen D. Turner</t>
   </si>
 </sst>
 </file>
@@ -951,10 +960,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{030A72B4-BCD4-C841-B970-1A2BD7901864}">
-  <dimension ref="A1:C64"/>
+  <dimension ref="A1:C65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64"/>
+    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1667,6 +1676,17 @@
         <v>185</v>
       </c>
     </row>
+    <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tables/books_eng.xlsx
+++ b/tables/books_eng.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/materov/ALL/@GitProjects/@2024/rsources-book/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF1B5D4C-531A-9941-91DA-28EBC0711E48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A05FD16C-B79F-354A-BFCE-EDAA58BD6D46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="60" yWindow="500" windowWidth="25540" windowHeight="14160" xr2:uid="{D3150169-A0ED-F142-9C13-F6AF1A7F6BF6}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="199">
   <si>
     <t>link</t>
   </si>
@@ -605,19 +605,53 @@
   </si>
   <si>
     <t>Stephen D. Turner</t>
+  </si>
+  <si>
+    <t>Peter D.R. Higgins</t>
+  </si>
+  <si>
+    <t>Reproducible Medical Research with R</t>
+  </si>
+  <si>
+    <t>https://bookdown.org/pdr_higgins/rmrwr/</t>
+  </si>
+  <si>
+    <t>Benjamin Rosenbaum</t>
+  </si>
+  <si>
+    <t>Introduction to Bayesian statistics in R &amp; brms</t>
+  </si>
+  <si>
+    <t>https://github.com/benjamin-rosenbaum/bayesian-intro</t>
+  </si>
+  <si>
+    <t>Solomon Kurz</t>
+  </si>
+  <si>
+    <t>Doing Bayesian Data Analysis in brms and the tidyverse</t>
+  </si>
+  <si>
+    <t>https://bookdown.org/content/3686/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -641,11 +675,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -960,10 +995,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{030A72B4-BCD4-C841-B970-1A2BD7901864}">
-  <dimension ref="A1:C65"/>
+  <dimension ref="A1:C68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A62" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A66" sqref="A66"/>
+      <selection activeCell="A66" sqref="A66:C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1687,6 +1722,39 @@
         <v>188</v>
       </c>
     </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
